--- a/Datos/Database by set/Set with text box/Xlsx sets/Urza's Destiny Promos (PUDS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Urza's Destiny Promos (PUDS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,35 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>False Prophet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Human Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>When False Prophet dies, exile all creatures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('False Prophet', ['{2}{W}{W}', 'Creature — Human Cleric', 'When False Prophet dies, exile all creatures.', '2/2'])</t>
         </is>
       </c>
     </row>
